--- a/biology/Zoologie/Holopneustes/Holopneustes.xlsx
+++ b/biology/Zoologie/Holopneustes/Holopneustes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holopneustes est un genre d'oursins (échinodermes) de la famille des Temnopleuridae, que l'on trouve en Australie et en Nouvelle-Zélande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holopneustes est un genre d'oursins (échinodermes) de la famille des Temnopleuridae, que l'on trouve en Australie et en Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers, de forme sphérique, avec la bouche située au centre de la face inférieure (« face orale ») et l'anus à l'opposé (face dite « aborale »), au sein de l'« appareil apical » situé au sommet de la coquille (appelée « test »).
 Le test est presque parfaitement sphérique, aussi haut que large.
@@ -523,7 +537,7 @@
 On note parfois des fossettes aux sutures triples.
 Le péristome est petit, avec des encoches buccales très réduites.
 Les radioles sont courtes et simples.
-La lanterne d'Aristote est camarodonte[1].
+La lanterne d'Aristote est camarodonte.
 Ce genre est extrêmement proche du genre voisin Amblypneustes, mais il s'en distingue par le fait qu'il porte un tubercule primaire sur chaque plaque ambulacraire. L'espèce H. inflatus est parfois nommée A. inflatus. 
 L'espèce H. purpurascens est extrêmement proche de H. inflatus, et parfois confondue, cependant son test comme ses radioles sont plus massifs. 
 </t>
@@ -554,9 +568,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 avril 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 avril 2014) :
 Holopneustes inflatus (A. Agassiz, 1872) -- Australie (sud de la côte est, est de la côte sud, Tasmanie)
 Holopneustes porosissimus L. Agassiz in L. Agassiz &amp; Desor, 1846 -- Australie (côte sud et sud de la côte ouest)
 Holopneustes purpurascens (A. Agassiz, 1872) -- Australie (sud de la côte est, Tasmanie)
